--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2466642.846500073</v>
+        <v>-2467383.309320796</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406074</v>
+        <v>1462975.848406076</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15697322.39032378</v>
+        <v>15697322.39032379</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>182.0208661034422</v>
+        <v>251.0172406307679</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395492</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0845181045931</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711097</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.42064602642672</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.8728397687462</v>
+        <v>65.87283976874606</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>126.2490103137841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.5243676847003</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457565</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.5213376233411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.81658261715481</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>40.99189795560321</v>
+        <v>40.99189795560306</v>
       </c>
       <c r="D12" t="n">
-        <v>15.72846453192622</v>
+        <v>15.72846453192608</v>
       </c>
       <c r="E12" t="n">
-        <v>25.92847942268841</v>
+        <v>25.92847942268827</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>5.358526637115157</v>
+        <v>5.358526637115014</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>84.01603958400342</v>
       </c>
       <c r="I12" t="n">
         <v>80.15602968011626</v>
@@ -1497,22 +1497,22 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S12" t="n">
-        <v>34.98135294622715</v>
+        <v>34.98135294622701</v>
       </c>
       <c r="T12" t="n">
-        <v>67.36632966027167</v>
+        <v>67.36632966027153</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9237248774628</v>
+        <v>94.20712384475011</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>101.0839861167126</v>
       </c>
       <c r="W12" t="n">
-        <v>119.9783821282071</v>
+        <v>119.9783821282069</v>
       </c>
       <c r="X12" t="n">
-        <v>158.0724237547676</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922476</v>
+        <v>48.11537914922462</v>
       </c>
       <c r="C13" t="n">
-        <v>35.5302200659153</v>
+        <v>35.53022006591516</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549982</v>
+        <v>16.89887198549968</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385664</v>
+        <v>14.7173616138565</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021871</v>
+        <v>13.70444699021857</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028137</v>
+        <v>36.04936959028123</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304864</v>
+        <v>28.51003926304849</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755893004</v>
+        <v>16.96724755892989</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437373</v>
+        <v>35.45957938437358</v>
       </c>
       <c r="S13" t="n">
-        <v>88.378708405295</v>
+        <v>88.37870840529486</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494642</v>
+        <v>95.26758743494628</v>
       </c>
       <c r="U13" t="n">
-        <v>154.5901551200257</v>
+        <v>154.5901551200256</v>
       </c>
       <c r="V13" t="n">
-        <v>120.4210422911155</v>
+        <v>120.4210422911153</v>
       </c>
       <c r="W13" t="n">
-        <v>154.8063973038785</v>
+        <v>154.8063973038783</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632462</v>
+        <v>93.99305435632448</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938226</v>
+        <v>86.86805231938212</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>201.6676256453706</v>
       </c>
       <c r="C14" t="n">
-        <v>233.5562907382949</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879703</v>
+        <v>222.9664405879702</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.1594447089987</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0845181045931</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711096</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.42064602642667</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874612</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.1834140824707</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>196.0356574374222</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>124.542989380012</v>
+        <v>238.0144996457563</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.521337623341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715472</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99189795560312</v>
+        <v>40.99189795560301</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>25.92847942268833</v>
+        <v>25.92847942268821</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>13.35261136067115</v>
       </c>
       <c r="G15" t="n">
-        <v>5.358526637115071</v>
+        <v>41.15210781329075</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>80.15602968011626</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622706</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T15" t="n">
-        <v>67.36632966027159</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U15" t="n">
-        <v>94.20712384475017</v>
+        <v>94.20712384475006</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0839861167127</v>
+        <v>101.0839861167125</v>
       </c>
       <c r="W15" t="n">
-        <v>226.0676559839929</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>74.05638417076474</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459174</v>
+        <v>73.96609474459163</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922468</v>
+        <v>48.11537914922457</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591522</v>
+        <v>35.5302200659151</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549974</v>
+        <v>16.89887198549962</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385655</v>
+        <v>14.71736161385644</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021863</v>
+        <v>13.70444699021851</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028129</v>
+        <v>36.04936959028117</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304855</v>
+        <v>28.51003926304844</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892995</v>
+        <v>16.96724755892984</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437364</v>
+        <v>35.45957938437353</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529492</v>
+        <v>88.3787084052948</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494634</v>
+        <v>95.26758743494622</v>
       </c>
       <c r="U16" t="n">
-        <v>154.5901551200256</v>
+        <v>154.5901551200255</v>
       </c>
       <c r="V16" t="n">
-        <v>120.4210422911154</v>
+        <v>120.4210422911153</v>
       </c>
       <c r="W16" t="n">
-        <v>154.8063973038784</v>
+        <v>154.8063973038783</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632454</v>
+        <v>93.99305435632442</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938217</v>
+        <v>86.86805231938206</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D17" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E17" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F17" t="n">
         <v>169.4965565155935</v>
@@ -1859,7 +1859,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W17" t="n">
         <v>111.8614794912951</v>
@@ -1910,7 +1910,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="18">
@@ -1923,25 +1923,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>24.05016917599248</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2.330521020668802</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>14.31549393480171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>77.45106251930778</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V19" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W19" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>31.81741139021997</v>
       </c>
       <c r="Y19" t="n">
-        <v>102.9818218891244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D20" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F20" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G20" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W20" t="n">
-        <v>111.8614794912951</v>
+        <v>111.8614794912957</v>
       </c>
       <c r="X20" t="n">
         <v>132.3516114523511</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="21">
@@ -2160,16 +2160,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>21.13530898930389</v>
       </c>
       <c r="G21" t="n">
         <v>137.0751276698277</v>
@@ -2178,7 +2178,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
-        <v>3.325506990937406</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>180.4328844084322</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>180.4328844084324</v>
       </c>
       <c r="U22" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V22" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W22" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C23" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D23" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E23" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F23" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G23" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H23" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V23" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W23" t="n">
         <v>111.8614794912951</v>
@@ -2384,7 +2384,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>63.80407223240783</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>23.8833811335722</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480165</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.9818218891244</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>31.81741139021997</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>77.45106251930778</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V25" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W25" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>232.6897813850284</v>
+        <v>232.6897813850286</v>
       </c>
       <c r="C26" t="n">
-        <v>215.2288314925554</v>
+        <v>215.2288314925555</v>
       </c>
       <c r="D26" t="n">
-        <v>204.6389813422308</v>
+        <v>204.6389813422309</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8863097938096</v>
+        <v>231.8863097938098</v>
       </c>
       <c r="F26" t="n">
-        <v>256.8319854632592</v>
+        <v>256.8319854632595</v>
       </c>
       <c r="G26" t="n">
-        <v>264.7570588588535</v>
+        <v>264.7570588588537</v>
       </c>
       <c r="H26" t="n">
-        <v>184.29354262537</v>
+        <v>184.2935426253702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.09318678068723</v>
+        <v>41.09318678068739</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300656</v>
+        <v>47.54538052300673</v>
       </c>
       <c r="T26" t="n">
-        <v>70.85595483673114</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U26" t="n">
-        <v>101.261463159158</v>
+        <v>101.2614631591581</v>
       </c>
       <c r="V26" t="n">
-        <v>177.7081981916827</v>
+        <v>177.7081981916829</v>
       </c>
       <c r="W26" t="n">
-        <v>199.1969084389608</v>
+        <v>199.196908438961</v>
       </c>
       <c r="X26" t="n">
-        <v>219.6870404000169</v>
+        <v>219.687040400017</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.1938783776014</v>
+        <v>236.1938783776016</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>16.48912337141533</v>
       </c>
       <c r="C27" t="n">
-        <v>22.66443870986356</v>
+        <v>22.66443870986373</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>144.9761157700079</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H27" t="n">
         <v>109.6433667609296</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>141.060056684923</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T27" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U27" t="n">
-        <v>75.87966459901061</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>101.6509228824676</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.63863549885218</v>
+        <v>55.63863549885235</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.78791990348512</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C28" t="n">
-        <v>17.20276082017565</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.72191034454173</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H28" t="n">
-        <v>10.18258001730899</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13212013863408</v>
+        <v>17.13212013863425</v>
       </c>
       <c r="S28" t="n">
-        <v>70.05124915955535</v>
+        <v>70.05124915955552</v>
       </c>
       <c r="T28" t="n">
-        <v>76.94012818920677</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U28" t="n">
-        <v>136.2626958742861</v>
+        <v>136.2626958742862</v>
       </c>
       <c r="V28" t="n">
-        <v>102.0935830453758</v>
+        <v>102.093583045376</v>
       </c>
       <c r="W28" t="n">
-        <v>136.4789380581388</v>
+        <v>136.478938058139</v>
       </c>
       <c r="X28" t="n">
-        <v>75.66559511058497</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.54059307364261</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.6897813850285</v>
+        <v>232.6897813850286</v>
       </c>
       <c r="C29" t="n">
-        <v>215.2288314925555</v>
+        <v>215.2288314925556</v>
       </c>
       <c r="D29" t="n">
-        <v>204.6389813422309</v>
+        <v>204.638981342231</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8863097938097</v>
+        <v>231.8863097938098</v>
       </c>
       <c r="F29" t="n">
-        <v>256.8319854632594</v>
+        <v>256.8319854632595</v>
       </c>
       <c r="G29" t="n">
         <v>264.7570588588537</v>
@@ -2810,7 +2810,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068738</v>
+        <v>41.09318678068742</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300671</v>
+        <v>47.54538052300676</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673129</v>
+        <v>70.85595483673134</v>
       </c>
       <c r="U29" t="n">
-        <v>101.2614631591581</v>
+        <v>101.2614631591582</v>
       </c>
       <c r="V29" t="n">
         <v>177.7081981916829</v>
@@ -2855,10 +2855,10 @@
         <v>199.196908438961</v>
       </c>
       <c r="X29" t="n">
-        <v>219.687040400017</v>
+        <v>219.6870404000171</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.1938783776015</v>
+        <v>236.1938783776016</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>97.25841870659002</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986376</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>7.601020176948907</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T30" t="n">
-        <v>49.03887041453217</v>
+        <v>49.03887041453223</v>
       </c>
       <c r="U30" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>82.75652687097329</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>69.20918437567786</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.63863549885232</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348526</v>
+        <v>29.78791990348532</v>
       </c>
       <c r="C31" t="n">
-        <v>17.2027608201758</v>
+        <v>17.20276082017585</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.72191034454187</v>
+        <v>17.72191034454193</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730913</v>
+        <v>10.18258001730919</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863422</v>
+        <v>17.13212013863428</v>
       </c>
       <c r="S31" t="n">
-        <v>70.0512491595555</v>
+        <v>70.05124915955555</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920692</v>
+        <v>76.94012818920697</v>
       </c>
       <c r="U31" t="n">
-        <v>136.2626958742862</v>
+        <v>136.2626958742863</v>
       </c>
       <c r="V31" t="n">
         <v>102.093583045376</v>
@@ -3013,10 +3013,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058512</v>
+        <v>75.66559511058517</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364275</v>
+        <v>68.54059307364281</v>
       </c>
     </row>
     <row r="32">
@@ -3108,10 +3108,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986373</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>82.75652687097326</v>
       </c>
       <c r="W33" t="n">
-        <v>101.6509228824676</v>
+        <v>182.4202182176423</v>
       </c>
       <c r="X33" t="n">
-        <v>55.72892492502547</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>69.11889494950456</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373625</v>
       </c>
       <c r="C35" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448895</v>
       </c>
       <c r="D35" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945649</v>
       </c>
       <c r="E35" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461437</v>
       </c>
       <c r="F35" t="n">
-        <v>169.4965565155935</v>
+        <v>169.4965565155934</v>
       </c>
       <c r="G35" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H35" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770415</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149209</v>
       </c>
       <c r="V35" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401687</v>
       </c>
       <c r="W35" t="n">
-        <v>111.8614794912951</v>
+        <v>111.861479491295</v>
       </c>
       <c r="X35" t="n">
-        <v>132.3516114523511</v>
+        <v>132.351611452351</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299355</v>
       </c>
     </row>
     <row r="36">
@@ -3345,10 +3345,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S36" t="n">
-        <v>157.6912179382034</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>101.4630217540212</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>35.0118363855014</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.92726692662033</v>
+        <v>48.92726692662022</v>
       </c>
       <c r="V37" t="n">
-        <v>14.75815409771008</v>
+        <v>14.75815409770996</v>
       </c>
       <c r="W37" t="n">
-        <v>49.14350911047308</v>
+        <v>49.14350911047296</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>180.4328844084323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D38" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E38" t="n">
         <v>144.5508808461439</v>
@@ -3518,7 +3518,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149221</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W38" t="n">
         <v>111.8614794912951</v>
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>19.48778613590545</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>56.16858353420561</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S39" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>14.31549393480171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,16 +3712,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>180.4328844084323</v>
       </c>
       <c r="U40" t="n">
-        <v>229.3601513350526</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V40" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W40" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>161.8338265482973</v>
+        <v>161.8338265482968</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3728766558243</v>
+        <v>144.3728766558237</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7830265054997</v>
+        <v>133.7830265054992</v>
       </c>
       <c r="E41" t="n">
-        <v>161.0303549570785</v>
+        <v>161.030354957078</v>
       </c>
       <c r="F41" t="n">
-        <v>185.9760306265281</v>
+        <v>185.9760306265276</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9011040221224</v>
+        <v>193.9011040221219</v>
       </c>
       <c r="H41" t="n">
-        <v>113.4375877886389</v>
+        <v>113.4375877886384</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242685</v>
+        <v>30.40550832242634</v>
       </c>
       <c r="V41" t="n">
-        <v>106.8522433549516</v>
+        <v>106.8522433549511</v>
       </c>
       <c r="W41" t="n">
-        <v>128.3409536022297</v>
+        <v>128.3409536022292</v>
       </c>
       <c r="X41" t="n">
-        <v>148.8310855632857</v>
+        <v>148.8310855632852</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.3379235408703</v>
+        <v>165.3379235408698</v>
       </c>
     </row>
     <row r="42">
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>174.6129300688103</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>5.023709762279489</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>30.7949680457358</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>52.42437691638489</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.1006484492989</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352475653</v>
+        <v>6.084173352475141</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755497</v>
+        <v>65.40674103755445</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864471</v>
+        <v>151.3382766579456</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140771</v>
+        <v>65.6229832214072</v>
       </c>
       <c r="X43" t="n">
-        <v>4.809640273853859</v>
+        <v>4.809640273853347</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>161.8338265482973</v>
+        <v>161.8338265482968</v>
       </c>
       <c r="C44" t="n">
-        <v>144.3728766558242</v>
+        <v>144.3728766558237</v>
       </c>
       <c r="D44" t="n">
-        <v>133.7830265054996</v>
+        <v>133.7830265054992</v>
       </c>
       <c r="E44" t="n">
-        <v>161.0303549570785</v>
+        <v>161.030354957078</v>
       </c>
       <c r="F44" t="n">
-        <v>185.9760306265281</v>
+        <v>185.9760306265276</v>
       </c>
       <c r="G44" t="n">
-        <v>193.9011040221224</v>
+        <v>193.9011040221219</v>
       </c>
       <c r="H44" t="n">
-        <v>113.4375877886389</v>
+        <v>113.4375877886384</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.40550832242681</v>
+        <v>30.40550832242634</v>
       </c>
       <c r="V44" t="n">
-        <v>106.8522433549516</v>
+        <v>106.8522433549511</v>
       </c>
       <c r="W44" t="n">
-        <v>128.3409536022297</v>
+        <v>128.3409536022292</v>
       </c>
       <c r="X44" t="n">
-        <v>148.8310855632857</v>
+        <v>148.8310855632852</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.3379235408703</v>
+        <v>165.3379235408698</v>
       </c>
     </row>
     <row r="45">
@@ -4056,16 +4056,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.0751276698277</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>5.02370976227946</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
-        <v>31.44880557211366</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>194.8521380339064</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>120.1006484493014</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>120.1006484492991</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.084173352475625</v>
+        <v>6.084173352475141</v>
       </c>
       <c r="U46" t="n">
-        <v>65.40674103755494</v>
+        <v>65.40674103755445</v>
       </c>
       <c r="V46" t="n">
-        <v>31.23762820864468</v>
+        <v>31.2376282086442</v>
       </c>
       <c r="W46" t="n">
-        <v>65.62298322140768</v>
+        <v>65.6229832214072</v>
       </c>
       <c r="X46" t="n">
-        <v>4.80964027385383</v>
+        <v>4.809640273853347</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>773.7867242610573</v>
+        <v>854.3585270320544</v>
       </c>
       <c r="C11" t="n">
-        <v>773.7867242610573</v>
+        <v>854.3585270320544</v>
       </c>
       <c r="D11" t="n">
-        <v>773.7867242610573</v>
+        <v>629.1399001755187</v>
       </c>
       <c r="E11" t="n">
-        <v>521.0455434130278</v>
+        <v>376.3987193274893</v>
       </c>
       <c r="F11" t="n">
-        <v>521.0455434130278</v>
+        <v>376.3987193274893</v>
       </c>
       <c r="G11" t="n">
-        <v>235.1015857316205</v>
+        <v>90.4547616460822</v>
       </c>
       <c r="H11" t="n">
-        <v>30.43390707393399</v>
+        <v>90.4547616460822</v>
       </c>
       <c r="I11" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020954</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326558</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550286</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241025</v>
       </c>
       <c r="N11" t="n">
         <v>1084.019791121359</v>
@@ -5075,16 +5075,16 @@
         <v>1455.157131708067</v>
       </c>
       <c r="V11" t="n">
-        <v>1455.157131708067</v>
+        <v>1327.632878865861</v>
       </c>
       <c r="W11" t="n">
-        <v>1455.157131708067</v>
+        <v>1107.911295345961</v>
       </c>
       <c r="X11" t="n">
-        <v>1214.738445197202</v>
+        <v>1107.911295345961</v>
       </c>
       <c r="Y11" t="n">
-        <v>957.646184971605</v>
+        <v>1107.911295345961</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>346.8304834586139</v>
+        <v>431.6951699071017</v>
       </c>
       <c r="C12" t="n">
-        <v>305.4245259277016</v>
+        <v>390.2892123761895</v>
       </c>
       <c r="D12" t="n">
-        <v>289.537188016665</v>
+        <v>374.4018744651531</v>
       </c>
       <c r="E12" t="n">
-        <v>263.3468047614242</v>
+        <v>348.2114912099124</v>
       </c>
       <c r="F12" t="n">
-        <v>116.8122467883092</v>
+        <v>201.6769332367973</v>
       </c>
       <c r="G12" t="n">
-        <v>111.399593619506</v>
+        <v>196.2642800679943</v>
       </c>
       <c r="H12" t="n">
         <v>111.399593619506</v>
@@ -5118,25 +5118,25 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J12" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K12" t="n">
-        <v>198.6970944041448</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="L12" t="n">
-        <v>486.3521110234743</v>
+        <v>342.4531504565508</v>
       </c>
       <c r="M12" t="n">
-        <v>862.9717110634075</v>
+        <v>719.072750496484</v>
       </c>
       <c r="N12" t="n">
-        <v>873.0305803211013</v>
+        <v>1095.692350536417</v>
       </c>
       <c r="O12" t="n">
-        <v>1185.002115453613</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P12" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q12" t="n">
         <v>1521.6953536967</v>
@@ -5151,19 +5151,19 @@
         <v>1333.976338311464</v>
       </c>
       <c r="U12" t="n">
-        <v>1105.770555606956</v>
+        <v>1238.817627357171</v>
       </c>
       <c r="V12" t="n">
-        <v>870.6184473752137</v>
+        <v>1136.712590875643</v>
       </c>
       <c r="W12" t="n">
-        <v>749.4281623972267</v>
+        <v>1015.522305897657</v>
       </c>
       <c r="X12" t="n">
-        <v>589.7590474934211</v>
+        <v>807.6708056921237</v>
       </c>
       <c r="Y12" t="n">
-        <v>381.9987487284673</v>
+        <v>599.9105069271698</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858032</v>
+        <v>194.4516414858022</v>
       </c>
       <c r="C13" t="n">
-        <v>158.562530308111</v>
+        <v>158.5625303081102</v>
       </c>
       <c r="D13" t="n">
-        <v>141.49296264599</v>
+        <v>141.4929626459893</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138115</v>
+        <v>126.626940813811</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661159</v>
+        <v>112.7840650661154</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946801</v>
+        <v>76.37056042946773</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184313</v>
+        <v>47.57254097184298</v>
       </c>
       <c r="I13" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J13" t="n">
-        <v>30.43390707393399</v>
+        <v>84.15679020220483</v>
       </c>
       <c r="K13" t="n">
-        <v>164.6670499418626</v>
+        <v>218.3899330701335</v>
       </c>
       <c r="L13" t="n">
-        <v>355.4987457100906</v>
+        <v>409.2216288383617</v>
       </c>
       <c r="M13" t="n">
-        <v>560.0046495552821</v>
+        <v>613.7275326835532</v>
       </c>
       <c r="N13" t="n">
-        <v>676.5957735341134</v>
+        <v>821.9059667580937</v>
       </c>
       <c r="O13" t="n">
-        <v>862.8204075624657</v>
+        <v>993.2198425848489</v>
       </c>
       <c r="P13" t="n">
-        <v>1017.467262206715</v>
+        <v>1017.467262206713</v>
       </c>
       <c r="Q13" t="n">
-        <v>1081.219273571224</v>
+        <v>1081.219273571222</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.401516617311</v>
+        <v>1045.401516617309</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856999</v>
+        <v>956.130093985698</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877742</v>
+        <v>859.9002076877724</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493644</v>
+        <v>703.7485358493627</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936922</v>
+        <v>582.1111193936907</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069463</v>
+        <v>425.7410211069449</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591437</v>
+        <v>330.7985419591424</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658283</v>
+        <v>243.0530345658271</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>982.1796154597606</v>
+        <v>879.5561792234175</v>
       </c>
       <c r="C14" t="n">
-        <v>746.2641702695637</v>
+        <v>879.5561792234175</v>
       </c>
       <c r="D14" t="n">
-        <v>521.0455434130276</v>
+        <v>654.3375523668819</v>
       </c>
       <c r="E14" t="n">
-        <v>521.0455434130276</v>
+        <v>654.3375523668819</v>
       </c>
       <c r="F14" t="n">
-        <v>521.0455434130276</v>
+        <v>376.3987193274893</v>
       </c>
       <c r="G14" t="n">
-        <v>235.1015857316204</v>
+        <v>90.45476164608216</v>
       </c>
       <c r="H14" t="n">
-        <v>30.43390707393399</v>
+        <v>90.45476164608216</v>
       </c>
       <c r="I14" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K14" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L14" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N14" t="n">
         <v>1084.019791121359</v>
@@ -5294,34 +5294,34 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P14" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q14" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R14" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S14" t="n">
-        <v>1455.157131708067</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T14" t="n">
-        <v>1365.072875059107</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U14" t="n">
-        <v>1365.072875059107</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="V14" t="n">
-        <v>1365.072875059107</v>
+        <v>1323.679538103344</v>
       </c>
       <c r="W14" t="n">
-        <v>1365.072875059107</v>
+        <v>1323.679538103344</v>
       </c>
       <c r="X14" t="n">
-        <v>1239.271875685358</v>
+        <v>1083.260851592479</v>
       </c>
       <c r="Y14" t="n">
-        <v>982.1796154597606</v>
+        <v>1083.260851592479</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>590.6284307249189</v>
+        <v>382.9856159598008</v>
       </c>
       <c r="C15" t="n">
-        <v>549.2224731940066</v>
+        <v>341.5796584288886</v>
       </c>
       <c r="D15" t="n">
-        <v>400.2880635327554</v>
+        <v>192.6452487676374</v>
       </c>
       <c r="E15" t="n">
-        <v>374.0976802775146</v>
+        <v>166.4548655123968</v>
       </c>
       <c r="F15" t="n">
-        <v>227.5631223043996</v>
+        <v>152.9673792894966</v>
       </c>
       <c r="G15" t="n">
-        <v>222.1504691355965</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H15" t="n">
         <v>111.399593619506</v>
@@ -5355,52 +5355,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J15" t="n">
-        <v>54.79813383722129</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K15" t="n">
-        <v>223.0613211674321</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L15" t="n">
-        <v>223.0613211674321</v>
+        <v>486.3521110234743</v>
       </c>
       <c r="M15" t="n">
-        <v>599.6809212073653</v>
+        <v>496.410980281168</v>
       </c>
       <c r="N15" t="n">
-        <v>976.3005212472984</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="O15" t="n">
-        <v>1288.27205637981</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P15" t="n">
         <v>1418.383708616427</v>
       </c>
       <c r="Q15" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R15" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S15" t="n">
-        <v>1402.023135948102</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T15" t="n">
-        <v>1333.976338311464</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U15" t="n">
-        <v>1238.817627357171</v>
+        <v>1057.061001659655</v>
       </c>
       <c r="V15" t="n">
-        <v>1136.712590875643</v>
+        <v>954.9559651781274</v>
       </c>
       <c r="W15" t="n">
-        <v>908.3614232150441</v>
+        <v>700.7186084499258</v>
       </c>
       <c r="X15" t="n">
-        <v>700.5099230095112</v>
+        <v>625.9141799946078</v>
       </c>
       <c r="Y15" t="n">
-        <v>625.7966959947721</v>
+        <v>551.2009529798688</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858026</v>
+        <v>194.4516414858018</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081105</v>
+        <v>158.5625303081098</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459895</v>
+        <v>141.492962645989</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138112</v>
+        <v>126.6269408138107</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661156</v>
+        <v>112.7840650661153</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946784</v>
+        <v>76.3705604294676</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184304</v>
+        <v>47.57254097184291</v>
       </c>
       <c r="I16" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220477</v>
+        <v>84.15679020220489</v>
       </c>
       <c r="K16" t="n">
-        <v>87.99049804774795</v>
+        <v>218.3899330701337</v>
       </c>
       <c r="L16" t="n">
-        <v>278.822193815976</v>
+        <v>409.2216288383619</v>
       </c>
       <c r="M16" t="n">
-        <v>483.3280976611676</v>
+        <v>613.7275326835536</v>
       </c>
       <c r="N16" t="n">
-        <v>676.5957735341119</v>
+        <v>821.9059667580941</v>
       </c>
       <c r="O16" t="n">
-        <v>862.8204075624643</v>
+        <v>926.5724189269712</v>
       </c>
       <c r="P16" t="n">
-        <v>1017.467262206714</v>
+        <v>1081.219273571221</v>
       </c>
       <c r="Q16" t="n">
-        <v>1081.219273571223</v>
+        <v>1081.219273571221</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.40151661731</v>
+        <v>1045.401516617308</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856987</v>
+        <v>956.1300939856972</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877731</v>
+        <v>859.9002076877716</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493634</v>
+        <v>703.748535849362</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936913</v>
+        <v>582.11111939369</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069455</v>
+        <v>425.7410211069443</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591429</v>
+        <v>330.7985419591419</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658276</v>
+        <v>243.0530345658267</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810897</v>
+        <v>872.4784887810898</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852416</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230547</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693741</v>
+        <v>478.7938061693743</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243301</v>
+        <v>307.5851632243304</v>
       </c>
       <c r="G17" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H17" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="I17" t="n">
-        <v>30.43390707393447</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108021001</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K17" t="n">
-        <v>226.9372683326561</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550287</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241027</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5531,19 +5531,19 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P17" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U17" t="n">
         <v>1507.62865247297</v>
@@ -5552,7 +5552,7 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W17" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X17" t="n">
         <v>1169.663137131896</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>464.3625996273182</v>
+        <v>618.3175877451099</v>
       </c>
       <c r="C18" t="n">
-        <v>464.3625996273182</v>
+        <v>443.8645584639829</v>
       </c>
       <c r="D18" t="n">
-        <v>315.4281899660669</v>
+        <v>294.9301488027317</v>
       </c>
       <c r="E18" t="n">
-        <v>315.4281899660669</v>
+        <v>135.6926937972761</v>
       </c>
       <c r="F18" t="n">
-        <v>168.8936319929519</v>
+        <v>111.399593619506</v>
       </c>
       <c r="G18" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H18" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I18" t="n">
         <v>30.43390707393399</v>
@@ -5604,40 +5604,40 @@
         <v>887.3359378266948</v>
       </c>
       <c r="N18" t="n">
-        <v>887.3359378266948</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="O18" t="n">
-        <v>1199.307472959206</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P18" t="n">
-        <v>1432.68906612202</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q18" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R18" t="n">
-        <v>1519.34129205966</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S18" t="n">
-        <v>1519.34129205966</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="T18" t="n">
-        <v>1318.247422672808</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="U18" t="n">
-        <v>1090.0416399683</v>
+        <v>1040.77028149338</v>
       </c>
       <c r="V18" t="n">
-        <v>854.8895317365572</v>
+        <v>1040.77028149338</v>
       </c>
       <c r="W18" t="n">
-        <v>840.429436852919</v>
+        <v>786.532924765178</v>
       </c>
       <c r="X18" t="n">
-        <v>632.5779366473862</v>
+        <v>786.532924765178</v>
       </c>
       <c r="Y18" t="n">
-        <v>632.5779366473862</v>
+        <v>786.532924765178</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>108.6673035580833</v>
+        <v>180.5505464862697</v>
       </c>
       <c r="C19" t="n">
-        <v>108.6673035580833</v>
+        <v>180.5505464862697</v>
       </c>
       <c r="D19" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E19" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F19" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G19" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H19" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I19" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J19" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947717</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531978</v>
+        <v>94.69987566531977</v>
       </c>
       <c r="M19" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N19" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O19" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P19" t="n">
         <v>326.6579621681116</v>
@@ -5710,13 +5710,13 @@
         <v>262.3292540627273</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6893458703302</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X19" t="n">
-        <v>212.6893458703302</v>
+        <v>180.5505464862697</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.6673035580833</v>
+        <v>180.5505464862697</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810894</v>
+        <v>872.4784887810895</v>
       </c>
       <c r="C20" t="n">
         <v>743.2932336852414</v>
@@ -5735,13 +5735,13 @@
         <v>624.8047969230545</v>
       </c>
       <c r="E20" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693738</v>
       </c>
       <c r="F20" t="n">
-        <v>307.58516322433</v>
+        <v>307.5851632243298</v>
       </c>
       <c r="G20" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H20" t="n">
         <v>30.43390707393399</v>
@@ -5750,16 +5750,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108021001</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326561</v>
+        <v>226.9372683326558</v>
       </c>
       <c r="L20" t="n">
-        <v>485.3806706550287</v>
+        <v>485.3806706550286</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241027</v>
+        <v>789.5552979241025</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>616.6940897662687</v>
+        <v>690.1308556802139</v>
       </c>
       <c r="C21" t="n">
-        <v>442.2410604851417</v>
+        <v>690.1308556802139</v>
       </c>
       <c r="D21" t="n">
-        <v>442.2410604851417</v>
+        <v>541.1964460189627</v>
       </c>
       <c r="E21" t="n">
-        <v>283.0036054796862</v>
+        <v>381.9589910135072</v>
       </c>
       <c r="F21" t="n">
-        <v>283.0036054796862</v>
+        <v>360.6101940546143</v>
       </c>
       <c r="G21" t="n">
-        <v>144.5438805606683</v>
+        <v>222.1504691355965</v>
       </c>
       <c r="H21" t="n">
-        <v>33.79300504457784</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I21" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J21" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K21" t="n">
-        <v>30.43390707393399</v>
+        <v>65.51795678471956</v>
       </c>
       <c r="L21" t="n">
-        <v>318.0889236932636</v>
+        <v>353.1729734040491</v>
       </c>
       <c r="M21" t="n">
-        <v>496.4109802811681</v>
+        <v>729.7925734439823</v>
       </c>
       <c r="N21" t="n">
-        <v>873.0305803211013</v>
+        <v>1106.412173483915</v>
       </c>
       <c r="O21" t="n">
-        <v>1185.002115453613</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P21" t="n">
         <v>1418.383708616427</v>
@@ -5856,25 +5856,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S21" t="n">
-        <v>1521.6953536967</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T21" t="n">
-        <v>1521.6953536967</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="U21" t="n">
-        <v>1521.6953536967</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="V21" t="n">
-        <v>1286.543245464957</v>
+        <v>1152.219712613948</v>
       </c>
       <c r="W21" t="n">
-        <v>1032.305888736755</v>
+        <v>897.9823558857468</v>
       </c>
       <c r="X21" t="n">
-        <v>824.4543885312225</v>
+        <v>690.1308556802139</v>
       </c>
       <c r="Y21" t="n">
-        <v>616.6940897662687</v>
+        <v>690.1308556802139</v>
       </c>
     </row>
     <row r="22">
@@ -5935,16 +5935,16 @@
         <v>326.6579621681116</v>
       </c>
       <c r="S22" t="n">
-        <v>144.4025233717154</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="T22" t="n">
-        <v>144.4025233717154</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="U22" t="n">
-        <v>94.98104162765442</v>
+        <v>94.98104162765431</v>
       </c>
       <c r="V22" t="n">
-        <v>80.07381526633108</v>
+        <v>80.07381526633102</v>
       </c>
       <c r="W22" t="n">
         <v>30.43390707393399</v>
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810898</v>
+        <v>872.4784887810902</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852417</v>
+        <v>743.2932336852421</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230548</v>
+        <v>624.8047969230552</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693741</v>
+        <v>478.7938061693745</v>
       </c>
       <c r="F23" t="n">
-        <v>307.5851632243301</v>
+        <v>307.5851632243306</v>
       </c>
       <c r="G23" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H23" t="n">
-        <v>30.43390707393408</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I23" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020954</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K23" t="n">
         <v>226.9372683326556</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241027</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N23" t="n">
         <v>1084.019791121359</v>
@@ -6005,19 +6005,19 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P23" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U23" t="n">
         <v>1507.62865247297</v>
@@ -6029,7 +6029,7 @@
         <v>1303.351633548413</v>
       </c>
       <c r="X23" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y23" t="n">
         <v>1019.301067000648</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>539.1142027820354</v>
+        <v>590.2306436669764</v>
       </c>
       <c r="C24" t="n">
-        <v>474.6656449715224</v>
+        <v>590.2306436669764</v>
       </c>
       <c r="D24" t="n">
-        <v>474.6656449715224</v>
+        <v>441.2962340057252</v>
       </c>
       <c r="E24" t="n">
-        <v>315.4281899660669</v>
+        <v>282.0587790002697</v>
       </c>
       <c r="F24" t="n">
-        <v>168.8936319929519</v>
+        <v>135.5242210271547</v>
       </c>
       <c r="G24" t="n">
-        <v>30.43390707393399</v>
+        <v>135.5242210271547</v>
       </c>
       <c r="H24" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I24" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J24" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K24" t="n">
-        <v>30.43390707393399</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L24" t="n">
-        <v>119.7913802412349</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M24" t="n">
-        <v>496.4109802811681</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="N24" t="n">
-        <v>873.0305803211013</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="O24" t="n">
         <v>1185.002115453613</v>
@@ -6087,7 +6087,7 @@
         <v>1418.383708616427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R24" t="n">
         <v>1437.357835893786</v>
@@ -6099,19 +6099,19 @@
         <v>1236.263966506933</v>
       </c>
       <c r="U24" t="n">
-        <v>1236.263966506933</v>
+        <v>1008.058183802425</v>
       </c>
       <c r="V24" t="n">
-        <v>1001.111858275191</v>
+        <v>772.9060755706826</v>
       </c>
       <c r="W24" t="n">
-        <v>746.8745015469892</v>
+        <v>758.4459806870445</v>
       </c>
       <c r="X24" t="n">
-        <v>746.8745015469892</v>
+        <v>758.4459806870445</v>
       </c>
       <c r="Y24" t="n">
-        <v>539.1142027820354</v>
+        <v>758.4459806870445</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108.6673035580833</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="C25" t="n">
-        <v>108.6673035580833</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="D25" t="n">
-        <v>108.6673035580833</v>
+        <v>62.57270645799457</v>
       </c>
       <c r="E25" t="n">
-        <v>108.6673035580833</v>
+        <v>62.57270645799457</v>
       </c>
       <c r="F25" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G25" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H25" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I25" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J25" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="K25" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947717</v>
       </c>
       <c r="L25" t="n">
-        <v>94.69987566531978</v>
+        <v>94.69987566531977</v>
       </c>
       <c r="M25" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N25" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O25" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P25" t="n">
         <v>326.6579621681116</v>
@@ -6184,13 +6184,13 @@
         <v>262.3292540627273</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6893458703302</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X25" t="n">
-        <v>212.6893458703302</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.6893458703302</v>
+        <v>212.6893458703303</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.781708514023</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D26" t="n">
-        <v>1044.075666754194</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028715</v>
+        <v>809.8470710028719</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601854</v>
+        <v>550.4208230601855</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754849</v>
+        <v>282.9894504754848</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450481</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J26" t="n">
-        <v>234.1884011210063</v>
+        <v>234.1884011210062</v>
       </c>
       <c r="K26" t="n">
-        <v>548.91668804912</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471603</v>
+        <v>955.9037100471598</v>
       </c>
       <c r="M26" t="n">
-        <v>1408.621956991902</v>
+        <v>1408.621956991901</v>
       </c>
       <c r="N26" t="n">
-        <v>1851.630069864826</v>
+        <v>1851.630069864825</v>
       </c>
       <c r="O26" t="n">
-        <v>2233.040522606062</v>
+        <v>2233.040522606063</v>
       </c>
       <c r="P26" t="n">
-        <v>2542.656213831067</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R26" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S26" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T26" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U26" t="n">
-        <v>2544.422757287605</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790956</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367763</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.804426953604</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y26" t="n">
-        <v>1703.224751824714</v>
+        <v>1703.224751824715</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>643.6767580291811</v>
+        <v>769.3395489225496</v>
       </c>
       <c r="C27" t="n">
-        <v>620.7833855949755</v>
+        <v>746.4461764883438</v>
       </c>
       <c r="D27" t="n">
-        <v>471.8489759337241</v>
+        <v>597.5117668270925</v>
       </c>
       <c r="E27" t="n">
-        <v>312.6115209282686</v>
+        <v>451.0712458472866</v>
       </c>
       <c r="F27" t="n">
-        <v>166.0769629551536</v>
+        <v>304.5366878741715</v>
       </c>
       <c r="G27" t="n">
         <v>166.0769629551536</v>
       </c>
       <c r="H27" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235045</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K27" t="n">
-        <v>247.9535015325612</v>
+        <v>247.9535015325613</v>
       </c>
       <c r="L27" t="n">
         <v>535.6085181518908</v>
@@ -6330,25 +6330,25 @@
         <v>1985.558603119544</v>
       </c>
       <c r="S27" t="n">
-        <v>1843.073697377198</v>
+        <v>1817.176831423646</v>
       </c>
       <c r="T27" t="n">
-        <v>1641.979827990345</v>
+        <v>1616.082962036793</v>
       </c>
       <c r="U27" t="n">
-        <v>1565.333702132759</v>
+        <v>1387.877179332285</v>
       </c>
       <c r="V27" t="n">
-        <v>1330.181593901016</v>
+        <v>1152.725071100542</v>
       </c>
       <c r="W27" t="n">
-        <v>1075.944237172814</v>
+        <v>1050.047371219262</v>
       </c>
       <c r="X27" t="n">
-        <v>868.0927369672816</v>
+        <v>842.1958710137292</v>
       </c>
       <c r="Y27" t="n">
-        <v>811.8920950492491</v>
+        <v>785.9952290956965</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.32388724474067</v>
+        <v>91.3238872447417</v>
       </c>
       <c r="C28" t="n">
-        <v>73.94736116375516</v>
+        <v>73.94736116375601</v>
       </c>
       <c r="D28" t="n">
-        <v>75.36166255139258</v>
+        <v>75.36166255139327</v>
       </c>
       <c r="E28" t="n">
-        <v>78.93565920695676</v>
+        <v>78.93565920695727</v>
       </c>
       <c r="F28" t="n">
-        <v>83.51244133992247</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G28" t="n">
-        <v>65.61152179998133</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I28" t="n">
-        <v>56.67269700900467</v>
+        <v>56.67269700900451</v>
       </c>
       <c r="J28" t="n">
-        <v>56.67269700900467</v>
+        <v>128.5397647905573</v>
       </c>
       <c r="K28" t="n">
-        <v>209.0500245302155</v>
+        <v>280.9170923117679</v>
       </c>
       <c r="L28" t="n">
-        <v>269.4822852760581</v>
+        <v>341.3493530576105</v>
       </c>
       <c r="M28" t="n">
-        <v>423.1868200863566</v>
+        <v>415.4558218804166</v>
       </c>
       <c r="N28" t="n">
-        <v>500.9658191385115</v>
+        <v>493.2348209325715</v>
       </c>
       <c r="O28" t="n">
-        <v>556.7910181444784</v>
+        <v>697.6036396142058</v>
       </c>
       <c r="P28" t="n">
-        <v>729.58205744201</v>
+        <v>729.5820574420128</v>
       </c>
       <c r="Q28" t="n">
-        <v>811.4782534598008</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R28" t="n">
-        <v>794.1730816025947</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S28" t="n">
-        <v>723.4142440676903</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T28" t="n">
-        <v>645.6969428664713</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U28" t="n">
-        <v>508.0578561247683</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V28" t="n">
-        <v>404.9330247658028</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W28" t="n">
-        <v>267.0755115757636</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X28" t="n">
-        <v>190.6456175246677</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y28" t="n">
-        <v>121.412695228059</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C29" t="n">
         <v>1250.781708514024</v>
@@ -6446,28 +6446,28 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028721</v>
+        <v>809.8470710028714</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601857</v>
+        <v>550.4208230601851</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754851</v>
+        <v>282.9894504754843</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450518</v>
+        <v>96.83435691450501</v>
       </c>
       <c r="I29" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1884011210063</v>
+        <v>234.1884011210062</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491199</v>
+        <v>548.9166880491197</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471601</v>
+        <v>955.9037100471598</v>
       </c>
       <c r="M29" t="n">
         <v>1408.621956991901</v>
@@ -6482,25 +6482,25 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q29" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R29" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S29" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T29" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U29" t="n">
         <v>2544.422757287607</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790957</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367764</v>
       </c>
       <c r="X29" t="n">
         <v>1941.804426953606</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>671.3856074321086</v>
+        <v>603.4168843164294</v>
       </c>
       <c r="C30" t="n">
-        <v>496.9325781509816</v>
+        <v>580.5235118822236</v>
       </c>
       <c r="D30" t="n">
-        <v>347.9981684897303</v>
+        <v>580.5235118822236</v>
       </c>
       <c r="E30" t="n">
-        <v>340.320370331196</v>
+        <v>421.286056876768</v>
       </c>
       <c r="F30" t="n">
-        <v>193.785812358081</v>
+        <v>274.751498903653</v>
       </c>
       <c r="G30" t="n">
-        <v>55.32608743906316</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="H30" t="n">
-        <v>55.32608743906316</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="I30" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J30" t="n">
-        <v>79.69031420235045</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K30" t="n">
-        <v>247.9535015325612</v>
+        <v>247.9535015325613</v>
       </c>
       <c r="L30" t="n">
         <v>535.6085181518908</v>
@@ -6576,16 +6576,16 @@
         <v>1455.099318376293</v>
       </c>
       <c r="V30" t="n">
-        <v>1219.94721014455</v>
+        <v>1371.506866991471</v>
       </c>
       <c r="W30" t="n">
-        <v>965.7098534163486</v>
+        <v>1117.26951026327</v>
       </c>
       <c r="X30" t="n">
-        <v>895.8015863702093</v>
+        <v>909.4180100577369</v>
       </c>
       <c r="Y30" t="n">
-        <v>839.6009444521767</v>
+        <v>701.657711292783</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.73818863237881</v>
+        <v>94.89788390030584</v>
       </c>
       <c r="C31" t="n">
-        <v>75.36166255139315</v>
+        <v>77.52135781932013</v>
       </c>
       <c r="D31" t="n">
-        <v>75.36166255139315</v>
+        <v>78.93565920695735</v>
       </c>
       <c r="E31" t="n">
-        <v>78.93565920695718</v>
+        <v>78.93565920695735</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992276</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998147</v>
+        <v>65.61152179998155</v>
       </c>
       <c r="H31" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67269700900453</v>
+        <v>56.67269700900448</v>
       </c>
       <c r="J31" t="n">
-        <v>128.5397647905573</v>
+        <v>128.5397647905572</v>
       </c>
       <c r="K31" t="n">
-        <v>280.917092311768</v>
+        <v>132.3734726361004</v>
       </c>
       <c r="L31" t="n">
-        <v>341.3493530576106</v>
+        <v>341.3493530576105</v>
       </c>
       <c r="M31" t="n">
-        <v>424.6011214739963</v>
+        <v>563.999441556084</v>
       </c>
       <c r="N31" t="n">
-        <v>502.3801205261512</v>
+        <v>641.778440608239</v>
       </c>
       <c r="O31" t="n">
-        <v>706.7489392077856</v>
+        <v>790.8048304935039</v>
       </c>
       <c r="P31" t="n">
-        <v>730.9963588296496</v>
+        <v>815.0522501153679</v>
       </c>
       <c r="Q31" t="n">
-        <v>812.8925548474404</v>
+        <v>815.0522501153679</v>
       </c>
       <c r="R31" t="n">
-        <v>795.5873829902341</v>
+        <v>797.7470782581615</v>
       </c>
       <c r="S31" t="n">
-        <v>724.8285454553296</v>
+        <v>726.9882407232569</v>
       </c>
       <c r="T31" t="n">
-        <v>647.1112442541105</v>
+        <v>649.2709395220378</v>
       </c>
       <c r="U31" t="n">
-        <v>509.4721575124072</v>
+        <v>511.6318527803345</v>
       </c>
       <c r="V31" t="n">
-        <v>406.3473261534415</v>
+        <v>408.5070214213688</v>
       </c>
       <c r="W31" t="n">
-        <v>268.4898129634022</v>
+        <v>270.6495082313294</v>
       </c>
       <c r="X31" t="n">
-        <v>192.0599189123061</v>
+        <v>194.2196141802332</v>
       </c>
       <c r="Y31" t="n">
-        <v>122.8269966156973</v>
+        <v>124.9866918836243</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C32" t="n">
         <v>1250.781708514024</v>
@@ -6683,43 +6683,43 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028716</v>
+        <v>809.8470710028721</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601853</v>
+        <v>550.4208230601857</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754845</v>
+        <v>282.9894504754849</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450498</v>
+        <v>96.83435691450495</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210063</v>
+        <v>234.1884011210062</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491198</v>
+        <v>548.9166880491197</v>
       </c>
       <c r="L32" t="n">
-        <v>955.9037100471598</v>
+        <v>955.9037100471603</v>
       </c>
       <c r="M32" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N32" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O32" t="n">
-        <v>2233.040522606063</v>
+        <v>2233.040522606064</v>
       </c>
       <c r="P32" t="n">
         <v>2542.656213831068</v>
       </c>
       <c r="Q32" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R32" t="n">
         <v>2766.304371953158</v>
@@ -6731,16 +6731,16 @@
         <v>2646.707063508979</v>
       </c>
       <c r="U32" t="n">
-        <v>2544.422757287606</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790956</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y32" t="n">
         <v>1703.224751824715</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>822.9452642790299</v>
+        <v>603.4168843164294</v>
       </c>
       <c r="C33" t="n">
-        <v>648.4922349979029</v>
+        <v>580.5235118822236</v>
       </c>
       <c r="D33" t="n">
-        <v>499.5578253366515</v>
+        <v>580.5235118822236</v>
       </c>
       <c r="E33" t="n">
-        <v>340.320370331196</v>
+        <v>421.286056876768</v>
       </c>
       <c r="F33" t="n">
-        <v>193.785812358081</v>
+        <v>274.751498903653</v>
       </c>
       <c r="G33" t="n">
-        <v>55.32608743906316</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="H33" t="n">
-        <v>55.32608743906316</v>
+        <v>136.2917739846351</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J33" t="n">
-        <v>79.69031420235045</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K33" t="n">
-        <v>247.9535015325612</v>
+        <v>247.9535015325613</v>
       </c>
       <c r="L33" t="n">
         <v>535.6085181518908</v>
@@ -6813,16 +6813,16 @@
         <v>1455.099318376293</v>
       </c>
       <c r="V33" t="n">
-        <v>1219.94721014455</v>
+        <v>1371.506866991471</v>
       </c>
       <c r="W33" t="n">
-        <v>1117.26951026327</v>
+        <v>1187.244020306984</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.977666904658</v>
+        <v>979.3925201014513</v>
       </c>
       <c r="Y33" t="n">
-        <v>991.1606012990978</v>
+        <v>771.6322213364974</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.47466603327125</v>
+        <v>91.3238872447417</v>
       </c>
       <c r="C34" t="n">
-        <v>82.09813995228556</v>
+        <v>73.94736116375601</v>
       </c>
       <c r="D34" t="n">
-        <v>83.51244133992282</v>
+        <v>75.36166255139327</v>
       </c>
       <c r="E34" t="n">
-        <v>83.51244133992282</v>
+        <v>78.93565920695727</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992282</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G34" t="n">
-        <v>65.6115217999815</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I34" t="n">
-        <v>55.32608743906316</v>
+        <v>56.67269700900451</v>
       </c>
       <c r="J34" t="n">
-        <v>127.1931552206159</v>
+        <v>128.5397647905573</v>
       </c>
       <c r="K34" t="n">
-        <v>131.0268630661591</v>
+        <v>132.3734726361005</v>
       </c>
       <c r="L34" t="n">
-        <v>191.4591238120017</v>
+        <v>192.8057333819431</v>
       </c>
       <c r="M34" t="n">
-        <v>414.1092123104753</v>
+        <v>415.4558218804166</v>
       </c>
       <c r="N34" t="n">
-        <v>591.0127939448349</v>
+        <v>493.2348209325716</v>
       </c>
       <c r="O34" t="n">
-        <v>646.8379929508018</v>
+        <v>697.6036396142059</v>
       </c>
       <c r="P34" t="n">
-        <v>819.6290322483333</v>
+        <v>729.5820574420128</v>
       </c>
       <c r="Q34" t="n">
-        <v>819.6290322483333</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R34" t="n">
-        <v>802.3238603911269</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S34" t="n">
-        <v>731.5650228562223</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T34" t="n">
-        <v>653.8477216550032</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U34" t="n">
-        <v>516.2086349132999</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V34" t="n">
-        <v>413.0838035543342</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W34" t="n">
-        <v>275.2262903642948</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X34" t="n">
-        <v>198.7963963131986</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y34" t="n">
-        <v>129.5634740165897</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810897</v>
+        <v>872.47848878109</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852417</v>
+        <v>743.2932336852422</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230548</v>
+        <v>624.8047969230554</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693742</v>
+        <v>478.7938061693748</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243309</v>
       </c>
       <c r="G35" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372715</v>
       </c>
       <c r="H35" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I35" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020953</v>
+        <v>60.75260108020939</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L35" t="n">
         <v>485.3806706550282</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241021</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>510.6589493336315</v>
+        <v>704.5657411783457</v>
       </c>
       <c r="C36" t="n">
-        <v>336.2059200525046</v>
+        <v>704.5657411783457</v>
       </c>
       <c r="D36" t="n">
-        <v>336.2059200525046</v>
+        <v>555.6313315170944</v>
       </c>
       <c r="E36" t="n">
-        <v>176.968465047049</v>
+        <v>396.3938765116388</v>
       </c>
       <c r="F36" t="n">
-        <v>30.43390707393399</v>
+        <v>249.8593185385238</v>
       </c>
       <c r="G36" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H36" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J36" t="n">
-        <v>54.79813383722129</v>
+        <v>54.79813383722128</v>
       </c>
       <c r="K36" t="n">
         <v>223.0613211674321</v>
       </c>
       <c r="L36" t="n">
-        <v>223.0613211674321</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M36" t="n">
-        <v>599.6809212073651</v>
+        <v>873.0305803211008</v>
       </c>
       <c r="N36" t="n">
-        <v>873.0305803211011</v>
+        <v>873.0305803211008</v>
       </c>
       <c r="O36" t="n">
-        <v>1185.002115453613</v>
+        <v>1185.002115453612</v>
       </c>
       <c r="P36" t="n">
-        <v>1418.383708616427</v>
+        <v>1418.383708616426</v>
       </c>
       <c r="Q36" t="n">
         <v>1521.695353696699</v>
       </c>
       <c r="R36" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S36" t="n">
-        <v>1362.411295173262</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T36" t="n">
-        <v>1161.317425786409</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="U36" t="n">
-        <v>933.1116430819011</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="V36" t="n">
-        <v>933.1116430819011</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="W36" t="n">
-        <v>678.8742863536995</v>
+        <v>1183.120479165584</v>
       </c>
       <c r="X36" t="n">
-        <v>678.8742863536995</v>
+        <v>975.2689789600513</v>
       </c>
       <c r="Y36" t="n">
-        <v>678.8742863536995</v>
+        <v>872.7810781984138</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="C37" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="D37" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="E37" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="F37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947716</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531977</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M37" t="n">
         <v>168.8063444881258</v>
@@ -7126,19 +7126,19 @@
         <v>326.6579621681116</v>
       </c>
       <c r="U37" t="n">
-        <v>277.2364804240506</v>
+        <v>277.2364804240507</v>
       </c>
       <c r="V37" t="n">
-        <v>262.3292540627273</v>
+        <v>262.3292540627276</v>
       </c>
       <c r="W37" t="n">
-        <v>212.6893458703303</v>
+        <v>212.6893458703306</v>
       </c>
       <c r="X37" t="n">
-        <v>212.6893458703303</v>
+        <v>212.6893458703306</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703306</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810893</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852411</v>
+        <v>743.2932336852417</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230543</v>
+        <v>624.8047969230548</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693737</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243296</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H38" t="n">
         <v>30.43390707393399</v>
@@ -7175,13 +7175,13 @@
         <v>60.75260108020962</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550284</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N38" t="n">
         <v>1084.019791121359</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>466.6414280291056</v>
+        <v>410.5572889801563</v>
       </c>
       <c r="C39" t="n">
-        <v>466.6414280291056</v>
+        <v>236.1042596990293</v>
       </c>
       <c r="D39" t="n">
-        <v>446.9567955685951</v>
+        <v>87.16985003777805</v>
       </c>
       <c r="E39" t="n">
-        <v>287.7193405631396</v>
+        <v>87.16985003777805</v>
       </c>
       <c r="F39" t="n">
-        <v>141.1847825900245</v>
+        <v>87.16985003777805</v>
       </c>
       <c r="G39" t="n">
-        <v>141.1847825900245</v>
+        <v>87.16985003777805</v>
       </c>
       <c r="H39" t="n">
-        <v>30.43390707393399</v>
+        <v>87.16985003777805</v>
       </c>
       <c r="I39" t="n">
         <v>30.43390707393399</v>
@@ -7254,19 +7254,19 @@
         <v>54.79813383722129</v>
       </c>
       <c r="K39" t="n">
-        <v>223.0613211674321</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="L39" t="n">
-        <v>510.7163377867616</v>
+        <v>342.4531504565508</v>
       </c>
       <c r="M39" t="n">
-        <v>887.3359378266948</v>
+        <v>496.4109802811681</v>
       </c>
       <c r="N39" t="n">
-        <v>1263.955537866628</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="O39" t="n">
-        <v>1418.383708616427</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P39" t="n">
         <v>1418.383708616427</v>
@@ -7275,28 +7275,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R39" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S39" t="n">
-        <v>1353.313582000801</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T39" t="n">
-        <v>1152.219712613948</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="U39" t="n">
-        <v>924.0139299094404</v>
+        <v>1040.77028149338</v>
       </c>
       <c r="V39" t="n">
-        <v>688.8618216776977</v>
+        <v>1040.77028149338</v>
       </c>
       <c r="W39" t="n">
-        <v>674.4017267940595</v>
+        <v>786.5329247651782</v>
       </c>
       <c r="X39" t="n">
-        <v>674.4017267940595</v>
+        <v>786.5329247651782</v>
       </c>
       <c r="Y39" t="n">
-        <v>466.6414280291056</v>
+        <v>578.7726260002244</v>
       </c>
     </row>
     <row r="40">
@@ -7360,13 +7360,13 @@
         <v>326.6579621681116</v>
       </c>
       <c r="T40" t="n">
-        <v>326.6579621681116</v>
+        <v>144.4025233717153</v>
       </c>
       <c r="U40" t="n">
-        <v>94.98104162765442</v>
+        <v>94.98104162765436</v>
       </c>
       <c r="V40" t="n">
-        <v>80.07381526633108</v>
+        <v>80.07381526633105</v>
       </c>
       <c r="W40" t="n">
         <v>30.43390707393399</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829033</v>
+        <v>976.4306445829002</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416666</v>
+        <v>830.5994560416641</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340913</v>
+        <v>695.4650858340892</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350222</v>
+        <v>532.8081616350207</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445897</v>
+        <v>344.9535852445889</v>
       </c>
       <c r="G41" t="n">
-        <v>149.0938842121431</v>
+        <v>149.0938842121424</v>
       </c>
       <c r="H41" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="I41" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="J41" t="n">
-        <v>64.82915620969243</v>
+        <v>64.82915620969231</v>
       </c>
       <c r="K41" t="n">
-        <v>329.2497490324469</v>
+        <v>231.0138234621384</v>
       </c>
       <c r="L41" t="n">
-        <v>587.6931513548195</v>
+        <v>658.0807932294208</v>
       </c>
       <c r="M41" t="n">
-        <v>891.8677786238934</v>
+        <v>993.383054398241</v>
       </c>
       <c r="N41" t="n">
-        <v>1186.33227182115</v>
+        <v>1287.847547595498</v>
       </c>
       <c r="O41" t="n">
-        <v>1419.19910488672</v>
+        <v>1520.714380661068</v>
       </c>
       <c r="P41" t="n">
-        <v>1580.271176436057</v>
+        <v>1681.786452210405</v>
       </c>
       <c r="Q41" t="n">
-        <v>1624.007834396491</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="R41" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="U41" t="n">
-        <v>1694.810475501726</v>
+        <v>1694.81047550172</v>
       </c>
       <c r="V41" t="n">
-        <v>1586.878916557331</v>
+        <v>1586.878916557325</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.241589686391</v>
+        <v>1457.241589686387</v>
       </c>
       <c r="X41" t="n">
-        <v>1306.907159824487</v>
+        <v>1306.907159824483</v>
       </c>
       <c r="Y41" t="n">
-        <v>1139.89915624785</v>
+        <v>1139.899156247846</v>
       </c>
     </row>
     <row r="42">
@@ -7470,67 +7470,67 @@
         <v>627.6766097622565</v>
       </c>
       <c r="D42" t="n">
-        <v>478.7422001010053</v>
+        <v>478.7422001010052</v>
       </c>
       <c r="E42" t="n">
-        <v>319.5047450955498</v>
+        <v>319.5047450955497</v>
       </c>
       <c r="F42" t="n">
-        <v>172.9701871224348</v>
+        <v>172.9701871224347</v>
       </c>
       <c r="G42" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="H42" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="J42" t="n">
-        <v>58.87468896670418</v>
+        <v>58.87468896670406</v>
       </c>
       <c r="K42" t="n">
-        <v>227.137876296915</v>
+        <v>227.1378762969148</v>
       </c>
       <c r="L42" t="n">
-        <v>514.7928929162446</v>
+        <v>514.7928929162445</v>
       </c>
       <c r="M42" t="n">
-        <v>902.4519511407073</v>
+        <v>902.451951140707</v>
       </c>
       <c r="N42" t="n">
-        <v>1180.169981875519</v>
+        <v>1316.078204508299</v>
       </c>
       <c r="O42" t="n">
-        <v>1492.14151700803</v>
+        <v>1622.211465090566</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.523110170844</v>
+        <v>1622.211465090566</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="R42" t="n">
-        <v>1641.185592367931</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="S42" t="n">
-        <v>1641.185592367931</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="T42" t="n">
-        <v>1464.808895328729</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="U42" t="n">
-        <v>1459.734441023396</v>
+        <v>1497.31732746633</v>
       </c>
       <c r="V42" t="n">
-        <v>1224.582332791653</v>
+        <v>1262.165219234588</v>
       </c>
       <c r="W42" t="n">
-        <v>970.3449760634514</v>
+        <v>1231.059190905562</v>
       </c>
       <c r="X42" t="n">
-        <v>970.3449760634514</v>
+        <v>1178.105274828405</v>
       </c>
       <c r="Y42" t="n">
         <v>970.3449760634514</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="C43" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="D43" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="E43" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="F43" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="G43" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="I43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="K43" t="n">
-        <v>38.34417004896007</v>
+        <v>38.34417004895995</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480266</v>
+        <v>98.77643079480254</v>
       </c>
       <c r="M43" t="n">
-        <v>172.8828996176088</v>
+        <v>172.8828996176086</v>
       </c>
       <c r="N43" t="n">
-        <v>250.6618986697637</v>
+        <v>250.6618986697636</v>
       </c>
       <c r="O43" t="n">
-        <v>306.4870976757305</v>
+        <v>306.4870976757304</v>
       </c>
       <c r="P43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="Q43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="R43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="S43" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5888876486292</v>
+        <v>324.5888876486296</v>
       </c>
       <c r="U43" t="n">
-        <v>258.5214724591797</v>
+        <v>258.5214724591806</v>
       </c>
       <c r="V43" t="n">
-        <v>226.9683126524679</v>
+        <v>105.6545263400436</v>
       </c>
       <c r="W43" t="n">
-        <v>160.6824710146823</v>
+        <v>39.36868470225853</v>
       </c>
       <c r="X43" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341676</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829042</v>
+        <v>976.4306445829009</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416675</v>
+        <v>830.5994560416648</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340922</v>
+        <v>695.4650858340901</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350229</v>
+        <v>532.8081616350214</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445904</v>
+        <v>344.9535852445895</v>
       </c>
       <c r="G44" t="n">
-        <v>149.093884212143</v>
+        <v>149.0938842121424</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="I44" t="n">
-        <v>34.51046220341689</v>
+        <v>63.97560257890072</v>
       </c>
       <c r="J44" t="n">
-        <v>64.82915620969243</v>
+        <v>94.29429658517626</v>
       </c>
       <c r="K44" t="n">
-        <v>298.1625482367734</v>
+        <v>298.1625482367687</v>
       </c>
       <c r="L44" t="n">
-        <v>556.6059505591461</v>
+        <v>556.6059505591413</v>
       </c>
       <c r="M44" t="n">
-        <v>860.78057782822</v>
+        <v>860.7805778282152</v>
       </c>
       <c r="N44" t="n">
-        <v>1287.847547595504</v>
+        <v>1287.847547595498</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.714380661074</v>
+        <v>1520.714380661068</v>
       </c>
       <c r="P44" t="n">
-        <v>1681.786452210411</v>
+        <v>1681.786452210405</v>
       </c>
       <c r="Q44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="R44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="S44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170839</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501727</v>
+        <v>1694.810475501721</v>
       </c>
       <c r="V44" t="n">
-        <v>1586.878916557331</v>
+        <v>1586.878916557326</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.241589686392</v>
+        <v>1457.241589686387</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824488</v>
+        <v>1306.907159824483</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.899156247851</v>
+        <v>1139.899156247847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>481.1420517891415</v>
+        <v>642.8921840379279</v>
       </c>
       <c r="C45" t="n">
-        <v>481.1420517891415</v>
+        <v>468.4391547568009</v>
       </c>
       <c r="D45" t="n">
-        <v>332.2076421278903</v>
+        <v>319.5047450955497</v>
       </c>
       <c r="E45" t="n">
-        <v>172.9701871224348</v>
+        <v>319.5047450955497</v>
       </c>
       <c r="F45" t="n">
-        <v>172.9701871224348</v>
+        <v>172.9701871224347</v>
       </c>
       <c r="G45" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="J45" t="n">
-        <v>58.87468896670418</v>
+        <v>58.87468896670406</v>
       </c>
       <c r="K45" t="n">
-        <v>227.137876296915</v>
+        <v>58.87468896670406</v>
       </c>
       <c r="L45" t="n">
-        <v>275.573025203191</v>
+        <v>346.5297055860336</v>
       </c>
       <c r="M45" t="n">
-        <v>663.2320834276536</v>
+        <v>734.1887638104963</v>
       </c>
       <c r="N45" t="n">
-        <v>1076.858336795246</v>
+        <v>1147.815017178089</v>
       </c>
       <c r="O45" t="n">
-        <v>1388.829871927757</v>
+        <v>1388.829871927751</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.211465090572</v>
+        <v>1622.211465090566</v>
       </c>
       <c r="Q45" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="S45" t="n">
-        <v>1557.141338474946</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="T45" t="n">
-        <v>1356.047469088093</v>
+        <v>1725.523110170838</v>
       </c>
       <c r="U45" t="n">
-        <v>1350.97301478276</v>
+        <v>1497.31732746633</v>
       </c>
       <c r="V45" t="n">
-        <v>1319.206544507898</v>
+        <v>1262.165219234588</v>
       </c>
       <c r="W45" t="n">
-        <v>1064.969187779696</v>
+        <v>1007.927862506386</v>
       </c>
       <c r="X45" t="n">
-        <v>857.1176875741635</v>
+        <v>811.1075210579959</v>
       </c>
       <c r="Y45" t="n">
-        <v>649.3573888092096</v>
+        <v>811.1075210579959</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158424</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158424</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158424</v>
       </c>
       <c r="E46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158424</v>
       </c>
       <c r="F46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="G46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="H46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="I46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341676</v>
       </c>
       <c r="K46" t="n">
-        <v>38.34417004896007</v>
+        <v>38.34417004895995</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480266</v>
+        <v>98.77643079480254</v>
       </c>
       <c r="M46" t="n">
-        <v>172.8828996176088</v>
+        <v>172.8828996176086</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6618986697637</v>
+        <v>250.6618986697636</v>
       </c>
       <c r="O46" t="n">
-        <v>306.4870976757305</v>
+        <v>306.4870976757304</v>
       </c>
       <c r="P46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.7345172975945</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="R46" t="n">
-        <v>209.4207309851712</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="S46" t="n">
-        <v>209.4207309851712</v>
+        <v>330.7345172975944</v>
       </c>
       <c r="T46" t="n">
-        <v>203.2751013362059</v>
+        <v>324.5888876486296</v>
       </c>
       <c r="U46" t="n">
-        <v>137.2076861467565</v>
+        <v>258.5214724591806</v>
       </c>
       <c r="V46" t="n">
-        <v>105.6545263400447</v>
+        <v>226.9683126524693</v>
       </c>
       <c r="W46" t="n">
-        <v>39.36868470225914</v>
+        <v>160.6824710146842</v>
       </c>
       <c r="X46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158424</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158424</v>
       </c>
     </row>
   </sheetData>
@@ -8705,7 +8705,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751717</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8778,16 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N12" t="n">
-        <v>71.69855201032253</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>273.3066373221405</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>80.27972245565155</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5540958868388</v>
+        <v>84.29073146033424</v>
       </c>
       <c r="N15" t="n">
         <v>441.9619164368269</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>214.1496969973136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627453</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9252,16 +9252,16 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N18" t="n">
-        <v>61.53807801265202</v>
+        <v>362.2109847065083</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>78.73955651661686</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.627431669593</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720743</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>94.50242152751717</v>
+        <v>105.3305255148892</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>254.2535469453958</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N21" t="n">
         <v>441.961916436827</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719551</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9638,13 +9638,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928329</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>94.50242152751717</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>170.5397963620161</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868388</v>
+        <v>440.1042398205825</v>
       </c>
       <c r="N24" t="n">
-        <v>441.961916436827</v>
+        <v>61.53807801265202</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -10668,13 +10668,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>80.27972245565155</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5540958868388</v>
+        <v>440.1042398205823</v>
       </c>
       <c r="N36" t="n">
-        <v>337.6488447942035</v>
+        <v>61.53807801265202</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751717</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5540958868388</v>
+        <v>229.6432168814693</v>
       </c>
       <c r="N39" t="n">
-        <v>441.9619164368269</v>
+        <v>441.961916436827</v>
       </c>
       <c r="O39" t="n">
-        <v>234.72760777904</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>82.72378564719551</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>342.0613413811485</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>387.9650722562795</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719551</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751717</v>
       </c>
       <c r="L45" t="n">
-        <v>129.2041152902738</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,7 +11388,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>322.1889047485993</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.99637452732587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.556290738295</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879704</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089989</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642687</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247079</v>
+        <v>89.18341408247065</v>
       </c>
       <c r="U11" t="n">
-        <v>119.5889224048976</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374224</v>
+        <v>69.78664712363818</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847005</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.017240630768</v>
+        <v>49.34961498539727</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.5562907382948</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395492</v>
+        <v>250.213769039549</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089988</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642678</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>65.872839768746</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.18341408247053</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048975</v>
+        <v>119.5889224048974</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374223</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847004</v>
+        <v>217.5243676847003</v>
       </c>
       <c r="X14" t="n">
-        <v>113.4715102657444</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="15">
@@ -26317,7 +26317,7 @@
         <v>184337.1762113336</v>
       </c>
       <c r="D2" t="n">
-        <v>184337.1762113336</v>
+        <v>184337.1762113337</v>
       </c>
       <c r="E2" t="n">
         <v>158184.0490121288</v>
@@ -26329,7 +26329,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="H2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="I2" t="n">
         <v>184734.3982194636</v>
@@ -26344,16 +26344,16 @@
         <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319206.1449189901</v>
+        <v>319206.1449189903</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472423</v>
+        <v>84530.31055472417</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>84530.3105547242</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.0989423952</v>
+        <v>87131.09894239524</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510462</v>
+        <v>34584.19673510457</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,22 +26427,22 @@
         <v>310803.6100166999</v>
       </c>
       <c r="F4" t="n">
-        <v>310803.6100166999</v>
+        <v>310803.6100167</v>
       </c>
       <c r="G4" t="n">
         <v>377919.8023185457</v>
       </c>
       <c r="H4" t="n">
-        <v>377919.8023185457</v>
+        <v>377919.8023185458</v>
       </c>
       <c r="I4" t="n">
-        <v>377919.8023185457</v>
+        <v>377919.8023185458</v>
       </c>
       <c r="J4" t="n">
-        <v>376828.4269773419</v>
+        <v>376828.4269773418</v>
       </c>
       <c r="K4" t="n">
-        <v>376828.4269773418</v>
+        <v>376828.4269773417</v>
       </c>
       <c r="L4" t="n">
         <v>376828.4269773418</v>
@@ -26457,7 +26457,7 @@
         <v>376989.2813831306</v>
       </c>
       <c r="P4" t="n">
-        <v>376989.2813831306</v>
+        <v>376989.2813831307</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36923.20336678312</v>
+        <v>36923.20336678313</v>
       </c>
       <c r="F5" t="n">
         <v>36923.20336678313</v>
       </c>
       <c r="G5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="H5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="J5" t="n">
-        <v>57382.03161561138</v>
+        <v>57382.03161561136</v>
       </c>
       <c r="K5" t="n">
-        <v>57382.03161561136</v>
+        <v>57382.03161561135</v>
       </c>
       <c r="L5" t="n">
         <v>57382.03161561136</v>
       </c>
       <c r="M5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="N5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="O5" t="n">
-        <v>47518.94570368936</v>
+        <v>47518.9457036893</v>
       </c>
       <c r="P5" t="n">
-        <v>47518.94570368936</v>
+        <v>47518.9457036893</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-285564.3035079145</v>
+        <v>-285568.7170857827</v>
       </c>
       <c r="C6" t="n">
-        <v>-285564.3035079145</v>
+        <v>-285568.7170857827</v>
       </c>
       <c r="D6" t="n">
-        <v>-285564.3035079145</v>
+        <v>-285568.7170857826</v>
       </c>
       <c r="E6" t="n">
-        <v>-508748.9092903443</v>
+        <v>-509043.913170426</v>
       </c>
       <c r="F6" t="n">
-        <v>-189542.7643713543</v>
+        <v>-189837.7682514359</v>
       </c>
       <c r="G6" t="n">
-        <v>-323521.8913681208</v>
+        <v>-323521.8913681207</v>
       </c>
       <c r="H6" t="n">
         <v>-238991.5808133966</v>
       </c>
       <c r="I6" t="n">
-        <v>-238991.5808133965</v>
+        <v>-238991.5808133967</v>
       </c>
       <c r="J6" t="n">
-        <v>-366392.1185347004</v>
+        <v>-366392.1185347001</v>
       </c>
       <c r="K6" t="n">
-        <v>-249476.0603734894</v>
+        <v>-249476.0603734893</v>
       </c>
       <c r="L6" t="n">
         <v>-334006.3709282137</v>
       </c>
       <c r="M6" t="n">
-        <v>-326122.6797557918</v>
+        <v>-326122.6797557919</v>
       </c>
       <c r="N6" t="n">
-        <v>-238991.5808133966</v>
+        <v>-238991.5808133965</v>
       </c>
       <c r="O6" t="n">
         <v>-274358.0256024608</v>
       </c>
       <c r="P6" t="n">
-        <v>-239773.8288673561</v>
+        <v>-239773.8288673563</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="J2" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K2" t="n">
         <v>150.044060278452</v>
@@ -26716,16 +26716,16 @@
         <v>150.044060278452</v>
       </c>
       <c r="M2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="N2" t="n">
         <v>237.3794892261179</v>
       </c>
       <c r="O2" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="P2" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
     </row>
     <row r="3">
@@ -26799,25 +26799,25 @@
         <v>380.4238384241749</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="G4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="H4" t="n">
         <v>380.4238384241749</v>
       </c>
       <c r="I4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="J4" t="n">
-        <v>691.5760929882895</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="K4" t="n">
-        <v>691.5760929882895</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="L4" t="n">
-        <v>691.5760929882895</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="M4" t="n">
         <v>380.4238384241748</v>
@@ -26826,10 +26826,10 @@
         <v>380.4238384241749</v>
       </c>
       <c r="O4" t="n">
-        <v>431.3807775427111</v>
+        <v>431.3807775427096</v>
       </c>
       <c r="P4" t="n">
-        <v>431.3807775427111</v>
+        <v>431.3807775427096</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934053</v>
+        <v>105.6628881934052</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504681</v>
+        <v>44.38117208504673</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766592</v>
+        <v>87.33542894766603</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411221</v>
+        <v>27.90169797411261</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641146</v>
+        <v>311.1522545641147</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006028</v>
+        <v>69.2715838600601</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853618</v>
+        <v>50.95693911853465</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934053</v>
+        <v>105.6628881934052</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504681</v>
+        <v>44.38117208504673</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="12">
@@ -28166,25 +28166,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D12" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E12" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6433667609296</v>
+        <v>25.62732717692616</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28217,22 +28217,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T12" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W12" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X12" t="n">
-        <v>47.70056144870992</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J13" t="n">
-        <v>77.45106251930778</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="L13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="M13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="N13" t="n">
-        <v>39.20416659260242</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="O13" t="n">
-        <v>131.7166010327125</v>
+        <v>116.6552291119075</v>
       </c>
       <c r="P13" t="n">
-        <v>131.7166010327125</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="R13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="S13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.7166010327125</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G15" t="n">
-        <v>131.7166010327126</v>
+        <v>95.92301985653694</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W15" t="n">
-        <v>25.62732717692671</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="L16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="M16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="N16" t="n">
-        <v>116.6552291119085</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="O16" t="n">
-        <v>131.7166010327126</v>
+        <v>49.33459915445475</v>
       </c>
       <c r="P16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.7166010327126</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="S16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I17" t="n">
         <v>191.1372470591394</v>
@@ -28618,19 +28618,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="18">
@@ -28643,25 +28643,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>121.0190432173914</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>81.16362160421561</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>237.3794892261179</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -28725,7 +28725,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -28743,7 +28743,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28776,19 +28776,19 @@
         <v>226.984188467659</v>
       </c>
       <c r="U19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>193.8922439988172</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.6028314629704</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I20" t="n">
         <v>191.1372470591394</v>
@@ -28855,19 +28855,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="21">
@@ -28880,16 +28880,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>123.93390340408</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>76.83052268917885</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,16 +28928,16 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -29007,19 +29007,19 @@
         <v>167.1761804170863</v>
       </c>
       <c r="S22" t="n">
-        <v>39.66242502957527</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T22" t="n">
-        <v>226.984188467659</v>
+        <v>46.55130405922654</v>
       </c>
       <c r="U22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I23" t="n">
         <v>191.1372470591394</v>
@@ -29092,19 +29092,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="24">
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>108.9044267559079</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>85.75998562735738</v>
       </c>
       <c r="I24" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29171,19 +29171,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -29193,19 +29193,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.85015829281286</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>113.6036366327113</v>
       </c>
       <c r="G25" t="n">
         <v>167.7659706229939</v>
@@ -29217,7 +29217,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29250,13 +29250,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O26" t="n">
-        <v>150.0440602784502</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y26" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="27">
@@ -29351,22 +29351,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C27" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>12.66896468539309</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -29402,25 +29402,25 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
-        <v>25.63789729401671</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>150.0440602784522</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J28" t="n">
-        <v>77.45106251930778</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>80.40208685605299</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P28" t="n">
-        <v>150.0440602784522</v>
+        <v>7.809089096912121</v>
       </c>
       <c r="Q28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.0440602784522</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="29">
@@ -29588,16 +29588,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>69.27476494327732</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29609,7 +29609,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I30" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29648,16 +29648,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>136.5638008277996</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29673,10 +29673,10 @@
         <v>150.044060278452</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E31" t="n">
-        <v>150.044060278452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>150.044060278452</v>
@@ -29694,25 +29694,25 @@
         <v>150.044060278452</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
       <c r="M31" t="n">
-        <v>9.237676357151187</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>150.044060278452</v>
+        <v>94.14261704979606</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.044060278452</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R31" t="n">
         <v>150.044060278452</v>
@@ -29770,7 +29770,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="J32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K32" t="n">
         <v>150.044060278452</v>
@@ -29828,10 +29828,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I33" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29885,16 +29885,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W33" t="n">
-        <v>150.044060278452</v>
+        <v>69.27476494327732</v>
       </c>
       <c r="X33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>136.5638008277998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29913,10 +29913,10 @@
         <v>150.044060278452</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G34" t="n">
         <v>150.044060278452</v>
@@ -29925,7 +29925,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="I34" t="n">
-        <v>148.6838485916426</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J34" t="n">
         <v>150.044060278452</v>
@@ -29940,16 +29940,16 @@
         <v>150.044060278452</v>
       </c>
       <c r="N34" t="n">
-        <v>100.125840992126</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P34" t="n">
+        <v>7.809089096912007</v>
+      </c>
+      <c r="Q34" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>67.32062995745123</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I35" t="n">
         <v>191.1372470591394</v>
@@ -30040,19 +30040,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="36">
@@ -30065,10 +30065,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>9.006736040736257</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -30128,10 +30128,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>104.2196740232832</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>144.8201437964359</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30153,7 +30153,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.7659706229939</v>
@@ -30198,19 +30198,19 @@
         <v>226.984188467659</v>
       </c>
       <c r="U37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.15176894366249</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -30299,28 +30299,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>127.9572794287333</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I39" t="n">
-        <v>80.15602968011626</v>
+        <v>23.98744614591065</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,22 +30347,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>237.3794892261179</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30432,10 +30432,10 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T40" t="n">
-        <v>226.984188467659</v>
+        <v>46.55130405922662</v>
       </c>
       <c r="U40" t="n">
-        <v>56.94660481768565</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V40" t="n">
         <v>237.3794892261179</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="C41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="D41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="E41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="F41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="H41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="I41" t="n">
         <v>191.1372470591394</v>
@@ -30484,13 +30484,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>99.22820764677616</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>170.3268358029392</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>31.44205444418822</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>220.9000151151833</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S41" t="n">
         <v>197.5894408014587</v>
@@ -30514,19 +30514,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="V41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="W41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="X41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
     </row>
     <row r="42">
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S42" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
-        <v>24.47000062417391</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>153.3486082870926</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30633,7 +30633,7 @@
         <v>167.7659706229939</v>
       </c>
       <c r="H43" t="n">
-        <v>40.12599184646231</v>
+        <v>160.2266402957612</v>
       </c>
       <c r="I43" t="n">
         <v>148.6838485916426</v>
@@ -30669,19 +30669,19 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="U43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="V43" t="n">
-        <v>220.9000151151833</v>
+        <v>100.7993666658824</v>
       </c>
       <c r="W43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="X43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,34 +30694,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="C44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="D44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="E44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="F44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="G44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="H44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="I44" t="n">
-        <v>191.1372470591394</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>67.82699472185351</v>
+        <v>38.0642266658044</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>133.9418955252801</v>
+        <v>133.9418955252785</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30748,22 +30748,22 @@
         <v>197.5894408014587</v>
       </c>
       <c r="T44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="U44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="V44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="W44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="X44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="Y44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
     </row>
     <row r="45">
@@ -30776,16 +30776,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -30824,25 +30824,25 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>201.3517815773116</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>10.92084716957109</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30864,7 +30864,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>25.32039957362983</v>
       </c>
       <c r="G46" t="n">
         <v>167.7659706229939</v>
@@ -30900,25 +30900,25 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R46" t="n">
-        <v>47.07553196778719</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S46" t="n">
         <v>220.0953094380075</v>
       </c>
       <c r="T46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="U46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="V46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="W46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="X46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151838</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -35425,7 +35425,7 @@
         <v>235.2190232985557</v>
       </c>
       <c r="P11" t="n">
-        <v>162.6990621710483</v>
+        <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
         <v>44.17844238427579</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K12" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>290.5606228478076</v>
@@ -35498,16 +35498,16 @@
         <v>380.4238384241749</v>
       </c>
       <c r="N12" t="n">
-        <v>10.16047399767051</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O12" t="n">
-        <v>315.1227627601127</v>
+        <v>194.5670808055236</v>
       </c>
       <c r="P12" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.26553851340489</v>
       </c>
       <c r="K13" t="n">
-        <v>135.5890331999279</v>
+        <v>135.589033199928</v>
       </c>
       <c r="L13" t="n">
-        <v>192.7592886547758</v>
+        <v>192.7592886547759</v>
       </c>
       <c r="M13" t="n">
-        <v>206.571620045648</v>
+        <v>206.5716200456481</v>
       </c>
       <c r="N13" t="n">
-        <v>117.7688120998296</v>
+        <v>210.2812465399399</v>
       </c>
       <c r="O13" t="n">
-        <v>188.1056909377296</v>
+        <v>173.0443190169245</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2089440851004</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.3959710752613</v>
+        <v>64.39597107526144</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427579</v>
+        <v>44.17844238427591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.61033006392656</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M15" t="n">
-        <v>380.4238384241749</v>
+        <v>10.16047399767033</v>
       </c>
       <c r="N15" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O15" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P15" t="n">
-        <v>131.4259113501181</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q15" t="n">
         <v>104.3551970507805</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340483</v>
+        <v>54.26553851340495</v>
       </c>
       <c r="K16" t="n">
-        <v>3.872432167215333</v>
+        <v>135.5890331999281</v>
       </c>
       <c r="L16" t="n">
-        <v>192.7592886547758</v>
+        <v>192.759288654776</v>
       </c>
       <c r="M16" t="n">
-        <v>206.571620045648</v>
+        <v>206.5716200456482</v>
       </c>
       <c r="N16" t="n">
-        <v>195.2198746191357</v>
+        <v>210.2812465399399</v>
       </c>
       <c r="O16" t="n">
-        <v>188.1056909377297</v>
+        <v>105.7236890594718</v>
       </c>
       <c r="P16" t="n">
-        <v>156.2089440851005</v>
+        <v>156.2089440851006</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.39597107526139</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>297.438882017431</v>
       </c>
       <c r="O17" t="n">
-        <v>235.2190232985557</v>
+        <v>235.2190232985556</v>
       </c>
       <c r="P17" t="n">
         <v>162.6990621710478</v>
@@ -35969,19 +35969,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M18" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>300.6729066938563</v>
       </c>
       <c r="O18" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.90534098452441</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068285</v>
+        <v>30.62494344068237</v>
       </c>
       <c r="K20" t="n">
         <v>167.863300254996</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>10.82810398737199</v>
       </c>
       <c r="L21" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M21" t="n">
-        <v>180.1232894827319</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N21" t="n">
         <v>380.4238384241749</v>
@@ -36215,7 +36215,7 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P21" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>104.3551970507805</v>
@@ -36364,7 +36364,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M23" t="n">
-        <v>307.2470982515903</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N23" t="n">
         <v>297.438882017431</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L24" t="n">
-        <v>90.2600739063646</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>380.4238384241749</v>
+        <v>365.9739823579186</v>
       </c>
       <c r="N24" t="n">
-        <v>380.4238384241749</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>315.1227627601127</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>180.6690037191345</v>
+        <v>180.6690037191344</v>
       </c>
       <c r="K26" t="n">
-        <v>317.9073605334482</v>
+        <v>317.907360533448</v>
       </c>
       <c r="L26" t="n">
-        <v>411.0980020182226</v>
+        <v>411.0980020182224</v>
       </c>
       <c r="M26" t="n">
-        <v>457.291158530042</v>
+        <v>457.2911585300419</v>
       </c>
       <c r="N26" t="n">
-        <v>447.4829422958832</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O26" t="n">
-        <v>385.2630835770058</v>
+        <v>385.2630835770077</v>
       </c>
       <c r="P26" t="n">
-        <v>312.7431224494999</v>
+        <v>312.7431224494998</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.222502662728</v>
+        <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362621</v>
+        <v>31.68472776362604</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.428587260239823</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E28" t="n">
-        <v>3.610097631883008</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F28" t="n">
-        <v>4.623012255520933</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.360211686809611</v>
+        <v>1.36021168680944</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>72.59299775914423</v>
       </c>
       <c r="K28" t="n">
-        <v>153.9164924456675</v>
+        <v>153.9164924456673</v>
       </c>
       <c r="L28" t="n">
         <v>61.04268762206323</v>
       </c>
       <c r="M28" t="n">
-        <v>155.2571058689884</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N28" t="n">
         <v>78.5646455072272</v>
       </c>
       <c r="O28" t="n">
-        <v>56.38908990501704</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P28" t="n">
-        <v>174.53640333084</v>
+        <v>32.30143214929999</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.72343032100095</v>
+        <v>82.72343032100078</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.6690037191344</v>
+        <v>180.6690037191343</v>
       </c>
       <c r="K29" t="n">
         <v>317.907360533448</v>
@@ -36844,7 +36844,7 @@
         <v>447.482942295883</v>
       </c>
       <c r="O29" t="n">
-        <v>385.2630835770077</v>
+        <v>385.2630835770076</v>
       </c>
       <c r="P29" t="n">
         <v>312.7431224494998</v>
@@ -36853,7 +36853,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362607</v>
+        <v>31.68472776362601</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.428587260239624</v>
       </c>
       <c r="E31" t="n">
-        <v>3.610097631882866</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>4.623012255520791</v>
+        <v>4.623012255520734</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.360211686809468</v>
+        <v>1.360211686809412</v>
       </c>
       <c r="J31" t="n">
-        <v>72.59299775914425</v>
+        <v>72.5929977591442</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9164924456674</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L31" t="n">
-        <v>61.04268762206323</v>
+        <v>211.0867479005152</v>
       </c>
       <c r="M31" t="n">
-        <v>84.09269537008662</v>
+        <v>224.8990792913874</v>
       </c>
       <c r="N31" t="n">
         <v>78.5646455072272</v>
       </c>
       <c r="O31" t="n">
-        <v>206.4331501834691</v>
+        <v>150.5317069548131</v>
       </c>
       <c r="P31" t="n">
         <v>24.49234305238787</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.72343032100081</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.6690037191345</v>
+        <v>180.6690037191344</v>
       </c>
       <c r="K32" t="n">
         <v>317.907360533448</v>
@@ -37075,7 +37075,7 @@
         <v>411.0980020182224</v>
       </c>
       <c r="M32" t="n">
-        <v>457.2911585300419</v>
+        <v>457.2911585300418</v>
       </c>
       <c r="N32" t="n">
         <v>447.482942295883</v>
@@ -37209,10 +37209,10 @@
         <v>1.428587260239652</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,7 +37221,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.36021168680944</v>
       </c>
       <c r="J34" t="n">
         <v>72.59299775914423</v>
@@ -37236,16 +37236,16 @@
         <v>224.8990792913874</v>
       </c>
       <c r="N34" t="n">
-        <v>178.6904864993532</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O34" t="n">
-        <v>56.38908990501704</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P34" t="n">
-        <v>174.5364033308399</v>
+        <v>32.30143214929988</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.72343032100078</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M35" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N35" t="n">
         <v>297.438882017431</v>
@@ -37388,13 +37388,13 @@
         <v>169.9628154850614</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>380.4238384241748</v>
+        <v>365.9739823579184</v>
       </c>
       <c r="N36" t="n">
-        <v>276.1107667815514</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601127</v>
@@ -37622,22 +37622,22 @@
         <v>24.61033006392656</v>
       </c>
       <c r="K39" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M39" t="n">
-        <v>380.4238384241749</v>
+        <v>155.5129594188054</v>
       </c>
       <c r="N39" t="n">
         <v>380.4238384241749</v>
       </c>
       <c r="O39" t="n">
-        <v>155.9880512624232</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q39" t="n">
         <v>104.3551970507805</v>
@@ -37780,13 +37780,13 @@
         <v>30.62494344068237</v>
       </c>
       <c r="K41" t="n">
-        <v>267.0915079017722</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L41" t="n">
-        <v>261.0539417397704</v>
+        <v>431.3807775427096</v>
       </c>
       <c r="M41" t="n">
-        <v>307.2470982515898</v>
+        <v>338.689152695778</v>
       </c>
       <c r="N41" t="n">
         <v>297.438882017431</v>
@@ -37801,7 +37801,7 @@
         <v>44.17844238427579</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5406826003573</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,16 +37868,16 @@
         <v>391.574806287336</v>
       </c>
       <c r="N42" t="n">
-        <v>280.5232633684964</v>
+        <v>417.8042963309015</v>
       </c>
       <c r="O42" t="n">
-        <v>315.1227627601127</v>
+        <v>309.2255157396627</v>
       </c>
       <c r="P42" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.7627680560444</v>
       </c>
       <c r="J44" t="n">
         <v>30.62494344068237</v>
       </c>
       <c r="K44" t="n">
-        <v>235.6902949768495</v>
+        <v>205.9275269208004</v>
       </c>
       <c r="L44" t="n">
         <v>261.0539417397704</v>
@@ -38026,7 +38026,7 @@
         <v>307.2470982515898</v>
       </c>
       <c r="N44" t="n">
-        <v>431.3807775427111</v>
+        <v>431.3807775427096</v>
       </c>
       <c r="O44" t="n">
         <v>235.2190232985557</v>
@@ -38044,7 +38044,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.840572387365683e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>24.61033006392656</v>
       </c>
       <c r="K45" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>48.92439283462222</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M45" t="n">
         <v>391.574806287336</v>
@@ -38108,7 +38108,7 @@
         <v>417.8042963309015</v>
       </c>
       <c r="O45" t="n">
-        <v>315.1227627601127</v>
+        <v>243.4493482319824</v>
       </c>
       <c r="P45" t="n">
         <v>235.7389829927417</v>
